--- a/database/addData.xlsx
+++ b/database/addData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fptuniversity-my.sharepoint.com/personal/thaiddhe176315_fpt_edu_vn/Documents/University/2nd Year (2023)/5th Semester/SWP391/2. SourceCode/CodeCoach/CodeCoach/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fptuniversity-my.sharepoint.com/personal/thaiddhe176315_fpt_edu_vn/Documents/University/2nd Year (2023)/5th Semester/SWP391/2. SourceCode/CodeCoach/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="543" documentId="11_F25DC773A252ABDACC1048BF39D949B45BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6AD17A6-BD75-4103-A137-E3F5ABF57969}"/>
+  <xr:revisionPtr revIDLastSave="557" documentId="11_F25DC773A252ABDACC1048BF39D949B45BDE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66503CDD-70E4-4EC3-9A90-DB4FC590D183}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Roles" sheetId="2" r:id="rId2"/>
     <sheet name="Users" sheetId="3" r:id="rId3"/>
     <sheet name="Categories" sheetId="4" r:id="rId4"/>
-    <sheet name="SubCCategories" sheetId="5" r:id="rId5"/>
+    <sheet name="SubCategories" sheetId="5" r:id="rId5"/>
     <sheet name="Skills" sheetId="6" r:id="rId6"/>
     <sheet name="Mentors" sheetId="7" r:id="rId7"/>
     <sheet name="Experience" sheetId="8" r:id="rId8"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="126">
   <si>
     <t>statusID</t>
   </si>
@@ -415,6 +415,12 @@
   </si>
   <si>
     <t>Getdate</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>CHATS</t>
   </si>
 </sst>
 </file>
@@ -465,11 +471,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -756,7 +761,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -807,7 +812,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,7 +843,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,7 +899,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -914,10 +919,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -925,10 +930,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -936,10 +941,10 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>94</v>
       </c>
     </row>
@@ -947,10 +952,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -958,10 +963,10 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -969,10 +974,10 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -980,10 +985,10 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -998,7 +1003,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1127,7 +1132,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1140,7 +1145,7 @@
       <c r="C1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1154,7 +1159,7 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>45047</v>
       </c>
     </row>
@@ -1168,7 +1173,7 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>45049</v>
       </c>
     </row>
@@ -1182,7 +1187,7 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>45051</v>
       </c>
     </row>
@@ -1196,7 +1201,7 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>45052</v>
       </c>
     </row>
@@ -1210,7 +1215,7 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>45052</v>
       </c>
     </row>
@@ -1299,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDFFC4A-89C9-4A9E-9740-73B55F97A1D3}">
-  <dimension ref="E1:F4"/>
+  <dimension ref="E1:J6"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1311,7 +1316,7 @@
     <col min="6" max="6" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
         <v>112</v>
       </c>
@@ -1319,7 +1324,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E2">
         <v>1</v>
       </c>
@@ -1327,7 +1332,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E3">
         <v>2</v>
       </c>
@@ -1335,12 +1340,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1443,7 +1453,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1515,7 +1525,7 @@
   <dimension ref="A4:B7"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1559,22 +1569,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8BCCDC-559B-43BD-9466-816B589E38DE}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.21875" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" customWidth="1"/>
-    <col min="11" max="11" width="32.109375" customWidth="1"/>
+    <col min="2" max="3" width="29.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" customWidth="1"/>
+    <col min="12" max="12" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1582,236 +1592,251 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>123456</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>276</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>234567</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
       <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>277</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>345678</v>
       </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>23</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>278</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
       <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
         <v>26</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>279</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>22</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1</v>
       </c>
     </row>
@@ -1821,7 +1846,7 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{3FB80502-5DD3-40FD-8BAE-E72AF36F2FAF}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{B11DA574-284C-49FB-95B2-22BA4F6811C6}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{8523B204-1528-41B6-B837-3952FA974B7A}"/>
-    <hyperlink ref="K2" r:id="rId5" xr:uid="{C1C69375-407E-4FF3-B7F4-25BF56FCC531}"/>
+    <hyperlink ref="L2" r:id="rId5" xr:uid="{C1C69375-407E-4FF3-B7F4-25BF56FCC531}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1832,7 +1857,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1899,7 +1924,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2073,7 +2098,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2401,7 +2426,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2464,7 +2489,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2539,7 +2564,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
